--- a/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q20C_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2840</v>
+        <v>2782</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10114</v>
+        <v>10109</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3697543459240548</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1649162264783017</v>
+        <v>0.161550301402976</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5872564288463659</v>
+        <v>0.5869985402608607</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>7713</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3876</v>
+        <v>3891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13596</v>
+        <v>13471</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.251517936253681</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1263798603133594</v>
+        <v>0.126871196242617</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4433579387489386</v>
+        <v>0.4392755668827143</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -786,19 +786,19 @@
         <v>14081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8667</v>
+        <v>8400</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20827</v>
+        <v>20848</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2940383330388231</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1809851700211537</v>
+        <v>0.1754080272639603</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.434891160374118</v>
+        <v>0.4353357124370489</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4807</v>
+        <v>3467</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.049191874953713</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2791448002800045</v>
+        <v>0.2013262055010482</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>8447</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3742</v>
+        <v>4554</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13390</v>
+        <v>14225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2754479276404561</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1220235388172071</v>
+        <v>0.1484985191062666</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4366243839320634</v>
+        <v>0.4638502797973608</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -857,19 +857,19 @@
         <v>9294</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4705</v>
+        <v>4716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15007</v>
+        <v>15751</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1940813066300507</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0982523222378506</v>
+        <v>0.09847903575258886</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3133728167736498</v>
+        <v>0.3289001060105832</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>3653</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7389</v>
+        <v>7298</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2121127482713014</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05283159769396949</v>
+        <v>0.05367225284889589</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4290703539931788</v>
+        <v>0.423735021404744</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4933</v>
+        <v>4880</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03180973067808913</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1608498591751879</v>
+        <v>0.159126937048136</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -928,19 +928,19 @@
         <v>4629</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9543</v>
+        <v>10285</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09665063603875688</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03741935792360149</v>
+        <v>0.03733715450550093</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1992697192627989</v>
+        <v>0.2147757034160905</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>6354</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2811</v>
+        <v>2854</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10777</v>
+        <v>10083</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3689410308509307</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1632326440533653</v>
+        <v>0.1657094947341103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6257697465795172</v>
+        <v>0.5854976063544567</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -978,19 +978,19 @@
         <v>13531</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8081</v>
+        <v>8592</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18517</v>
+        <v>18758</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4412244054277739</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2635011897455526</v>
+        <v>0.2801643351584898</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6037951674545594</v>
+        <v>0.611670192235326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -999,19 +999,19 @@
         <v>19885</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13212</v>
+        <v>13370</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26165</v>
+        <v>26434</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4152297242923693</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2758833349762986</v>
+        <v>0.2791917642379012</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5463737956310605</v>
+        <v>0.5519927767961478</v>
       </c>
     </row>
     <row r="8">
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4480</v>
+        <v>4067</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0686527335269302</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3147759097618871</v>
+        <v>0.2857576009876047</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4893</v>
+        <v>4819</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.04451744606644868</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2229277529740903</v>
+        <v>0.2195853527596487</v>
       </c>
     </row>
     <row r="10">
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>3875</v>
+        <v>4414</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1211962313372549</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.502156819887746</v>
+        <v>0.572035813187343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6042</v>
+        <v>6050</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1439197342209037</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4245575830141683</v>
+        <v>0.4251267483358463</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -1208,19 +1208,19 @@
         <v>2983</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7960</v>
+        <v>7859</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1359311481001368</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04311088523963631</v>
+        <v>0.04283192425911436</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3627001844577892</v>
+        <v>0.3580789906704294</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>3093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5989</v>
+        <v>5939</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4008196280130193</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1277307342236839</v>
+        <v>0.1278753298321967</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.776225049722869</v>
+        <v>0.7696549958727869</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1258,19 +1258,19 @@
         <v>2599</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6189</v>
+        <v>6251</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1826023091954925</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05348658241906198</v>
+        <v>0.055024938068938</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4348949045990326</v>
+        <v>0.4392702815121336</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1279,19 +1279,19 @@
         <v>5691</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2542</v>
+        <v>2505</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10469</v>
+        <v>10577</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2593179394107203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1158425403728023</v>
+        <v>0.1141588039774719</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4770127849880427</v>
+        <v>0.4819474534664309</v>
       </c>
     </row>
     <row r="12">
@@ -1308,19 +1308,19 @@
         <v>3688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>880</v>
+        <v>998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6701</v>
+        <v>6641</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4779841406497258</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1140363419762623</v>
+        <v>0.1293675037436419</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8684186864544284</v>
+        <v>0.8606278414286386</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -1329,19 +1329,19 @@
         <v>8607</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4918</v>
+        <v>4592</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>12226</v>
+        <v>11637</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6048252230566736</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3456117902269393</v>
+        <v>0.3226871065426697</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8591267234824899</v>
+        <v>0.8177495088211666</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>13</v>
@@ -1350,19 +1350,19 @@
         <v>12295</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7684</v>
+        <v>7546</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>17189</v>
+        <v>16311</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5602334664226942</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3501114275535744</v>
+        <v>0.3438060307721155</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.783204865443812</v>
+        <v>0.74319498863866</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6534</v>
+        <v>5983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2987404070955673</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7802548138375768</v>
+        <v>0.7144209109716191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6698</v>
+        <v>6634</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2003239617631632</v>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5363465247450714</v>
+        <v>0.5311995462726391</v>
       </c>
     </row>
     <row r="15">
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5398</v>
+        <v>5361</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2439929540621995</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6446344533022865</v>
+        <v>0.6402458352065961</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6173</v>
+        <v>5569</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1636124007302477</v>
@@ -1563,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4943046584708858</v>
+        <v>0.4459426142172488</v>
       </c>
     </row>
     <row r="16">
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4413</v>
+        <v>4749</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1280873982349821</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5270266589055893</v>
+        <v>0.5671358312328388</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5598</v>
+        <v>5351</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1614802355290051</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4483045888312957</v>
+        <v>0.4284910961860893</v>
       </c>
     </row>
     <row r="17">
@@ -1651,19 +1651,19 @@
         <v>2757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6061</v>
+        <v>5979</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3291792406072512</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08543262634537563</v>
+        <v>0.08592609758166903</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7237756740961067</v>
+        <v>0.7139591487869514</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1693,19 +1693,19 @@
         <v>5927</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2529</v>
+        <v>2609</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10252</v>
+        <v>9435</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4745834019775839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2025304778973405</v>
+        <v>0.2088893030346058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8209615409986069</v>
+        <v>0.7554930157305325</v>
       </c>
     </row>
     <row r="18">
@@ -1797,19 +1797,19 @@
         <v>8870</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4503</v>
+        <v>4582</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14113</v>
+        <v>14432</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2662610094263413</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1351803355467813</v>
+        <v>0.1375458788888443</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4236466516371003</v>
+        <v>0.4332447562475061</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -1818,19 +1818,19 @@
         <v>8690</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4480</v>
+        <v>4620</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14874</v>
+        <v>14949</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1773090782634331</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.09139629209161486</v>
+        <v>0.09425922117981216</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3034770822376806</v>
+        <v>0.3049938693188232</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>18</v>
@@ -1839,19 +1839,19 @@
         <v>17560</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11310</v>
+        <v>11380</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>26295</v>
+        <v>25246</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2133025384103329</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.137384250497102</v>
+        <v>0.1382380243743739</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3194107345516055</v>
+        <v>0.3066642005008935</v>
       </c>
     </row>
     <row r="20">
@@ -1868,19 +1868,19 @@
         <v>3826</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>959</v>
+        <v>995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8088</v>
+        <v>8599</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1148394599023754</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02879666249462089</v>
+        <v>0.02986460200530949</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2427979413746257</v>
+        <v>0.2581469714718018</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -1889,19 +1889,19 @@
         <v>10495</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5612</v>
+        <v>5744</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16950</v>
+        <v>16230</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2141366276093082</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1145064184447785</v>
+        <v>0.1171997327500351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3458221935930584</v>
+        <v>0.3311382252029786</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1910,19 +1910,19 @@
         <v>14321</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8605</v>
+        <v>8522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21686</v>
+        <v>21583</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.173957076678436</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1045215575360742</v>
+        <v>0.1035194389042259</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2634211474162651</v>
+        <v>0.2621731078008193</v>
       </c>
     </row>
     <row r="21">
@@ -1939,19 +1939,19 @@
         <v>7818</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3976</v>
+        <v>3825</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13436</v>
+        <v>13118</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2346977693506905</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1193664147939</v>
+        <v>0.1148196215680411</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4033333122359573</v>
+        <v>0.3937948721674372</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -1960,19 +1960,19 @@
         <v>4518</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1798</v>
+        <v>1696</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>9147</v>
+        <v>10168</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0921835903943046</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03668452049170678</v>
+        <v>0.03459530586391395</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1866204114835412</v>
+        <v>0.2074576914533448</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>13</v>
@@ -1981,19 +1981,19 @@
         <v>12336</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6870</v>
+        <v>7426</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19971</v>
+        <v>19933</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1498504488151793</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08345230003986091</v>
+        <v>0.09019960610724559</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2425861544335825</v>
+        <v>0.2421308604350181</v>
       </c>
     </row>
     <row r="22">
@@ -2010,19 +2010,19 @@
         <v>12799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7866</v>
+        <v>8040</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18795</v>
+        <v>18259</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3842017613205927</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2361283563301741</v>
+        <v>0.2413465017351882</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5642112530473179</v>
+        <v>0.5481109888688576</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -2031,19 +2031,19 @@
         <v>25309</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>18771</v>
+        <v>18573</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>32196</v>
+        <v>31991</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.516370703732954</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3829729654161865</v>
+        <v>0.3789406508093999</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.656887928652059</v>
+        <v>0.6526956968062866</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>40</v>
@@ -2052,19 +2052,19 @@
         <v>38107</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>29879</v>
+        <v>29656</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47328</v>
+        <v>46867</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4628899360960518</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3629484324119337</v>
+        <v>0.3602303177427729</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5748999209868203</v>
+        <v>0.569293510753857</v>
       </c>
     </row>
     <row r="23">
@@ -2395,19 +2395,19 @@
         <v>5372</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2114</v>
+        <v>1934</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11383</v>
+        <v>10797</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1930895406262075</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07597644918444144</v>
+        <v>0.06951404535223712</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4091059671365617</v>
+        <v>0.3880690407273037</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2416,19 +2416,19 @@
         <v>8318</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4146</v>
+        <v>4097</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14049</v>
+        <v>14491</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.217921210006687</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.108626289655344</v>
+        <v>0.1073453529629269</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3680849324982938</v>
+        <v>0.3796573456046569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -2437,19 +2437,19 @@
         <v>13690</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8460</v>
+        <v>7504</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>22861</v>
+        <v>20929</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2074518590311761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.128192360954093</v>
+        <v>0.1137066920366019</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3464219594753183</v>
+        <v>0.3171448008010964</v>
       </c>
     </row>
     <row r="5">
@@ -2466,19 +2466,19 @@
         <v>4277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1017</v>
+        <v>1019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>11017</v>
+        <v>11619</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1537199925783317</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03653770678451107</v>
+        <v>0.03661172725972395</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.39595717626035</v>
+        <v>0.4175961162272922</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -2487,19 +2487,19 @@
         <v>7597</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3429</v>
+        <v>3219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14003</v>
+        <v>14316</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1990262599970705</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08984291249694693</v>
+        <v>0.08434009265129251</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3668774275299118</v>
+        <v>0.3750641975059495</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -2508,19 +2508,19 @@
         <v>11874</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6379</v>
+        <v>6466</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>20567</v>
+        <v>20829</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1799245553259377</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09665456208110852</v>
+        <v>0.09797840966292817</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3116506129787883</v>
+        <v>0.3156239414384168</v>
       </c>
     </row>
     <row r="6">
@@ -2537,19 +2537,19 @@
         <v>6864</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2573</v>
+        <v>2886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12610</v>
+        <v>12470</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.246708411536568</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09249268603310247</v>
+        <v>0.1037219921821612</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4532108442193684</v>
+        <v>0.4481899077013777</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -2558,19 +2558,19 @@
         <v>5268</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10830</v>
+        <v>10605</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1380217717590886</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05270721960447748</v>
+        <v>0.05249315339163373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2837452633579081</v>
+        <v>0.27783890367897</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -2579,19 +2579,19 @@
         <v>12133</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6466</v>
+        <v>6600</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19376</v>
+        <v>20412</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1838454560528983</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09798028127229563</v>
+        <v>0.1000043559454889</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2936010686241694</v>
+        <v>0.3093017898165045</v>
       </c>
     </row>
     <row r="7">
@@ -2608,19 +2608,19 @@
         <v>11310</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6007</v>
+        <v>6300</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16655</v>
+        <v>17140</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4064820552588928</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2158918909332417</v>
+        <v>0.2264379517784657</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.598605033976374</v>
+        <v>0.6160259876575789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>15</v>
@@ -2629,19 +2629,19 @@
         <v>16986</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10891</v>
+        <v>10770</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24105</v>
+        <v>23468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4450307582371539</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2853318300025871</v>
+        <v>0.2821785401553773</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6315365171717469</v>
+        <v>0.6148469266059056</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -2650,19 +2650,19 @@
         <v>28296</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20656</v>
+        <v>20356</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36883</v>
+        <v>37598</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4287781295899879</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3130007543930156</v>
+        <v>0.308458378197817</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5588963965751451</v>
+        <v>0.569733224847615</v>
       </c>
     </row>
     <row r="8">
@@ -2754,19 +2754,19 @@
         <v>6084</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2082</v>
+        <v>2117</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>10965</v>
+        <v>11522</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2162050271543706</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07400703724920665</v>
+        <v>0.07522028080697518</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.38967998716019</v>
+        <v>0.4094520103571033</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -2775,19 +2775,19 @@
         <v>9145</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4137</v>
+        <v>4841</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15911</v>
+        <v>15652</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2693037513160136</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1218336524659636</v>
+        <v>0.1425649095904769</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4685595896714657</v>
+        <v>0.4609365619317532</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -2796,19 +2796,19 @@
         <v>15229</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8959</v>
+        <v>8916</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23065</v>
+        <v>23266</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2452421617569672</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1442646678209424</v>
+        <v>0.1435874506428819</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3714235980488755</v>
+        <v>0.3746582376013945</v>
       </c>
     </row>
     <row r="10">
@@ -2825,19 +2825,19 @@
         <v>7034</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2977</v>
+        <v>3091</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12456</v>
+        <v>12555</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2499646362169456</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1057872076585283</v>
+        <v>0.1098534073499539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4426711210721851</v>
+        <v>0.4461668266784287</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -2846,19 +2846,19 @@
         <v>5032</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1218</v>
+        <v>1672</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11163</v>
+        <v>11357</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1481796780389489</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03585857540433261</v>
+        <v>0.04924248005683017</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3287352730071121</v>
+        <v>0.3344531236447329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -2867,19 +2867,19 @@
         <v>12066</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6434</v>
+        <v>6409</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>19381</v>
+        <v>19382</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1943033453328766</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1036137045287171</v>
+        <v>0.1032053939528848</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3121064282221739</v>
+        <v>0.3121161688402073</v>
       </c>
     </row>
     <row r="11">
@@ -2896,19 +2896,19 @@
         <v>5522</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1821</v>
+        <v>1829</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9882</v>
+        <v>9997</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1962379008100024</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06469943650097715</v>
+        <v>0.06499875508127279</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.351193266113296</v>
+        <v>0.3552811886351661</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -2917,19 +2917,19 @@
         <v>9186</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4750</v>
+        <v>4602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14857</v>
+        <v>15535</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2705188063166181</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1398794908350185</v>
+        <v>0.1355329737320539</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4375092579662482</v>
+        <v>0.457462435281203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -2938,19 +2938,19 @@
         <v>14708</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8682</v>
+        <v>9126</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22421</v>
+        <v>21613</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.23685855009401</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1398177044013394</v>
+        <v>0.1469541320834494</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3610615032618008</v>
+        <v>0.3480501133216973</v>
       </c>
     </row>
     <row r="12">
@@ -2967,19 +2967,19 @@
         <v>9500</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4595</v>
+        <v>4398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15201</v>
+        <v>14722</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3375924358186814</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1632877777100204</v>
+        <v>0.1563117993664448</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5402110960810884</v>
+        <v>0.523200572070494</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>10</v>
@@ -2988,19 +2988,19 @@
         <v>10595</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5544</v>
+        <v>5120</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>16707</v>
+        <v>16299</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3119977643284194</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.16326331160484</v>
+        <v>0.150785800921632</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4919878287484051</v>
+        <v>0.4799797269251928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -3009,19 +3009,19 @@
         <v>20095</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>12939</v>
+        <v>13089</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>28789</v>
+        <v>27679</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3235959428161462</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2083629612412453</v>
+        <v>0.2107775145171261</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4636033847703541</v>
+        <v>0.4457265467024326</v>
       </c>
     </row>
     <row r="13">
@@ -3126,19 +3126,19 @@
         <v>4499</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1227</v>
+        <v>1201</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7854</v>
+        <v>7829</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4979958501759509</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1358348997198759</v>
+        <v>0.1329071360684155</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8694369937590527</v>
+        <v>0.8666316211622657</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -3147,19 +3147,19 @@
         <v>4499</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1274</v>
+        <v>1176</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8639</v>
+        <v>8694</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3710196201944651</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1050383679341111</v>
+        <v>0.09696368782591226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7124088522437025</v>
+        <v>0.7169640064398831</v>
       </c>
     </row>
     <row r="15">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4416</v>
+        <v>4479</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1181171920137378</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4887978103886874</v>
+        <v>0.4958446714458308</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5534</v>
+        <v>4951</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08800032310287319</v>
@@ -3222,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4563390606254599</v>
+        <v>0.408273546553818</v>
       </c>
     </row>
     <row r="16">
@@ -3263,7 +3263,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5766</v>
+        <v>5610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2423529227524985</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6382538544945779</v>
+        <v>0.6210023511191139</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3281,19 +3281,19 @@
         <v>4334</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1074</v>
+        <v>1088</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8569</v>
+        <v>9210</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3574442258714982</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08859323943944855</v>
+        <v>0.0897121338922542</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7066416783317934</v>
+        <v>0.7595417799598974</v>
       </c>
     </row>
     <row r="17">
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4819</v>
+        <v>4860</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1415340350578128</v>
@@ -3343,7 +3343,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5333880657442094</v>
+        <v>0.5379751045173771</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>2</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6107</v>
+        <v>6055</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1835358308311635</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5036099556818476</v>
+        <v>0.4993566181355037</v>
       </c>
     </row>
     <row r="18">
@@ -3456,19 +3456,19 @@
         <v>11456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5989</v>
+        <v>6290</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19130</v>
+        <v>18979</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1939947207218042</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1014161371530376</v>
+        <v>0.1065106875994916</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3239418267694819</v>
+        <v>0.3213837814564255</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -3477,19 +3477,19 @@
         <v>21962</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14612</v>
+        <v>14906</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>30848</v>
+        <v>31481</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2705951630438409</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1800371759569567</v>
+        <v>0.1836559479770491</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3800768944500938</v>
+        <v>0.3878761890559846</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>31</v>
@@ -3498,19 +3498,19 @@
         <v>33418</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23893</v>
+        <v>23365</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>44200</v>
+        <v>44507</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2383335209150347</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1703973732946248</v>
+        <v>0.1666315707379428</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3152250034253426</v>
+        <v>0.3174157901953795</v>
       </c>
     </row>
     <row r="20">
@@ -3527,19 +3527,19 @@
         <v>11311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5416</v>
+        <v>5653</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18466</v>
+        <v>18678</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1915322450265554</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09171275840075217</v>
+        <v>0.09572723910407682</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3126847654855744</v>
+        <v>0.316286080194047</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -3548,19 +3548,19 @@
         <v>13696</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7407</v>
+        <v>7752</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>21578</v>
+        <v>23601</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1687459166457902</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09126334073806378</v>
+        <v>0.09551827591261187</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2658615296898084</v>
+        <v>0.2907900810602665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -3569,19 +3569,19 @@
         <v>25007</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17166</v>
+        <v>17025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35612</v>
+        <v>36542</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1783427851411334</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1224231932493505</v>
+        <v>0.121420644040797</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2539789420468506</v>
+        <v>0.2606103419771374</v>
       </c>
     </row>
     <row r="21">
@@ -3598,19 +3598,19 @@
         <v>14531</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8035</v>
+        <v>8539</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22840</v>
+        <v>22404</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2460637026141603</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.136051559391893</v>
+        <v>0.1445874439600813</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3867513702041662</v>
+        <v>0.3793680188317394</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -3619,19 +3619,19 @@
         <v>16644</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>10061</v>
+        <v>10317</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25113</v>
+        <v>24967</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2050718790851661</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1239666462973481</v>
+        <v>0.1271215994720374</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3094135783742408</v>
+        <v>0.3076231626781035</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -3640,19 +3640,19 @@
         <v>31175</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>22185</v>
+        <v>22369</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42716</v>
+        <v>42412</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2223363164801854</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1582216064700819</v>
+        <v>0.1595303553441093</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3046392643755685</v>
+        <v>0.302474261156031</v>
       </c>
     </row>
     <row r="22">
@@ -3669,19 +3669,19 @@
         <v>21756</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>14737</v>
+        <v>14881</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30902</v>
+        <v>29943</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3684093316374802</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2495500443848958</v>
+        <v>0.2519798141334322</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5232785146517619</v>
+        <v>0.5070406646895594</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>26</v>
@@ -3690,19 +3690,19 @@
         <v>28860</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20504</v>
+        <v>20494</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38034</v>
+        <v>38066</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3555870412252027</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2526362011552905</v>
+        <v>0.2525013051844198</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4686184580266811</v>
+        <v>0.4690087097683295</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>46</v>
@@ -3711,19 +3711,19 @@
         <v>50617</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>39302</v>
+        <v>39301</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>62602</v>
+        <v>63792</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3609873774636465</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2802927001017304</v>
+        <v>0.2802904450584747</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4464632525785648</v>
+        <v>0.4549530730543051</v>
       </c>
     </row>
     <row r="23">
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5137</v>
+        <v>5088</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08200829400544794</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3976965298796051</v>
+        <v>0.3938964080383174</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -4075,19 +4075,19 @@
         <v>4720</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1722</v>
+        <v>1755</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9509</v>
+        <v>9485</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1901731618329999</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06940454014987921</v>
+        <v>0.07073617013777941</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3831712128247995</v>
+        <v>0.3821885916149692</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4096,19 +4096,19 @@
         <v>5779</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2639</v>
+        <v>2664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10985</v>
+        <v>12118</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1531464456382185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0699325234663386</v>
+        <v>0.07059074352746846</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2911265257543709</v>
+        <v>0.3211503469471009</v>
       </c>
     </row>
     <row r="5">
@@ -4125,19 +4125,19 @@
         <v>2982</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>782</v>
+        <v>755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7028</v>
+        <v>6995</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2308564414443449</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06054401647553229</v>
+        <v>0.0584824251788247</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5441030989461892</v>
+        <v>0.5415400247986473</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4146,19 +4146,19 @@
         <v>5590</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2084</v>
+        <v>1965</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11011</v>
+        <v>11055</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.225249519448534</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08395983809449702</v>
+        <v>0.07918876105285691</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.443695242861984</v>
+        <v>0.4454646643976053</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>8</v>
@@ -4167,19 +4167,19 @@
         <v>8572</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3635</v>
+        <v>4225</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15253</v>
+        <v>15251</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2271688664013371</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09632377713458933</v>
+        <v>0.1119796071589913</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4042352878726697</v>
+        <v>0.4041615069938314</v>
       </c>
     </row>
     <row r="6">
@@ -4196,19 +4196,19 @@
         <v>5992</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2773</v>
+        <v>2814</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9881</v>
+        <v>9633</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4638783955384214</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2147105494591101</v>
+        <v>0.2178726648188625</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7649914989496428</v>
+        <v>0.7457948458823075</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5912</v>
+        <v>6686</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07191110676504954</v>
@@ -4229,7 +4229,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2382414011500861</v>
+        <v>0.2694042440370803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>8</v>
@@ -4238,19 +4238,19 @@
         <v>7777</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3646</v>
+        <v>3301</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13414</v>
+        <v>13210</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2060883294672321</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09662048111423167</v>
+        <v>0.08747230618971043</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3554760308232965</v>
+        <v>0.3500920325524429</v>
       </c>
     </row>
     <row r="7">
@@ -4267,19 +4267,19 @@
         <v>2884</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>800</v>
+        <v>784</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6853</v>
+        <v>6784</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2232568690117857</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06189578150654934</v>
+        <v>0.06065746164662466</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5305051684916999</v>
+        <v>0.525190244985513</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -4288,19 +4288,19 @@
         <v>12723</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>7125</v>
+        <v>7071</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18071</v>
+        <v>17873</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5126662119534166</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2871175902864016</v>
+        <v>0.2849086521237879</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7281695828634234</v>
+        <v>0.7201721712549842</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>13</v>
@@ -4309,19 +4309,19 @@
         <v>15607</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9958</v>
+        <v>8747</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22768</v>
+        <v>21791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4135963584932123</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2639034456441873</v>
+        <v>0.2317994290969768</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6033728078076714</v>
+        <v>0.5774809227761905</v>
       </c>
     </row>
     <row r="8">
@@ -4413,19 +4413,19 @@
         <v>10083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4930</v>
+        <v>4851</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16391</v>
+        <v>15923</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2963469329552991</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1448900944394551</v>
+        <v>0.1425671976167127</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4817422443371319</v>
+        <v>0.4679700709239122</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -4434,19 +4434,19 @@
         <v>11299</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5759</v>
+        <v>6147</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17606</v>
+        <v>17956</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3381511865087544</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1723419136508314</v>
+        <v>0.1839593003669306</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5269097094442815</v>
+        <v>0.5373937399337813</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -4455,19 +4455,19 @@
         <v>21383</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14061</v>
+        <v>13813</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>30494</v>
+        <v>30019</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.317059711411405</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.20848951961381</v>
+        <v>0.2048260396095897</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.4521677397366091</v>
+        <v>0.4451157896530589</v>
       </c>
     </row>
     <row r="10">
@@ -4484,19 +4484,19 @@
         <v>8088</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3618</v>
+        <v>3547</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14730</v>
+        <v>14393</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2377101334738707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1063226795152492</v>
+        <v>0.1042337380443788</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4329120778240557</v>
+        <v>0.4230164098234872</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -4505,19 +4505,19 @@
         <v>9509</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4227</v>
+        <v>4414</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15718</v>
+        <v>16383</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2845859184607817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1264991074838004</v>
+        <v>0.1320901323825926</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4704058639094279</v>
+        <v>0.4903173022014906</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -4526,19 +4526,19 @@
         <v>17598</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10225</v>
+        <v>11549</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25911</v>
+        <v>26448</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2609357066359035</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1516108073709274</v>
+        <v>0.1712507639610556</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3842149862591273</v>
+        <v>0.3921676777538275</v>
       </c>
     </row>
     <row r="11">
@@ -4555,19 +4555,19 @@
         <v>8307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4006</v>
+        <v>4050</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14432</v>
+        <v>14161</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2441342089957396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.117727406926866</v>
+        <v>0.1190203219548665</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4241442751478122</v>
+        <v>0.416196027859492</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>4</v>
@@ -4576,19 +4576,19 @@
         <v>5080</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1507</v>
+        <v>1576</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10984</v>
+        <v>11321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1520234806520338</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04511537975488187</v>
+        <v>0.04717136580718196</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3287168530169258</v>
+        <v>0.3387993643756789</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>12</v>
@@ -4597,19 +4597,19 @@
         <v>13387</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>7264</v>
+        <v>7609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>20158</v>
+        <v>21609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1984960514533705</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1077051074379545</v>
+        <v>0.1128209155973059</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2989068297445489</v>
+        <v>0.3204200305275015</v>
       </c>
     </row>
     <row r="12">
@@ -4626,19 +4626,19 @@
         <v>7547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3431</v>
+        <v>3304</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13983</v>
+        <v>13711</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2218087245750907</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1008474777271678</v>
+        <v>0.09711604786923587</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4109652229473363</v>
+        <v>0.4029698005100283</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -4647,19 +4647,19 @@
         <v>7526</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3325</v>
+        <v>3257</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13708</v>
+        <v>13487</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2252394143784301</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.09949539632196745</v>
+        <v>0.09747617716648424</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.410249751171134</v>
+        <v>0.4036221291834597</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -4668,19 +4668,19 @@
         <v>15073</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>8918</v>
+        <v>8490</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>23071</v>
+        <v>23520</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.223508530499321</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1322350444463275</v>
+        <v>0.1258892082774596</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3420907536416745</v>
+        <v>0.3487557679299926</v>
       </c>
     </row>
     <row r="13">
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4139</v>
+        <v>3162</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.199521230958555</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9544667158880266</v>
+        <v>0.7292629839401968</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -4864,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5261</v>
+        <v>5287</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3051668478859378</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8281256502998215</v>
+        <v>0.8322121859000167</v>
       </c>
     </row>
     <row r="16">
@@ -4932,19 +4932,19 @@
         <v>3451</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1032</v>
+        <v>984</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5536</v>
+        <v>5605</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5431718314631285</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1624413993450746</v>
+        <v>0.1548877647452045</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8713945038435639</v>
+        <v>0.882213208593403</v>
       </c>
     </row>
     <row r="17">
@@ -4998,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3909</v>
+        <v>4201</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1516613206509337</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6152253897965057</v>
+        <v>0.6612750778304878</v>
       </c>
     </row>
     <row r="18">
@@ -5099,19 +5099,19 @@
         <v>11143</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6248</v>
+        <v>5503</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>18217</v>
+        <v>18038</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2172964112123894</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1218495667186171</v>
+        <v>0.1073106239483841</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3552547090983913</v>
+        <v>0.3517759010470973</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -5120,19 +5120,19 @@
         <v>16019</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9921</v>
+        <v>9647</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>23974</v>
+        <v>23345</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2658760691545864</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1646700272429263</v>
+        <v>0.1601220683622272</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3979300091435926</v>
+        <v>0.3874785861161484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -5141,19 +5141,19 @@
         <v>27161</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18352</v>
+        <v>19248</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>37610</v>
+        <v>37856</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2435398874559074</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1645492194268222</v>
+        <v>0.172582110948147</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3372274808387563</v>
+        <v>0.3394312086161756</v>
       </c>
     </row>
     <row r="20">
@@ -5170,19 +5170,19 @@
         <v>11935</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6304</v>
+        <v>6613</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18412</v>
+        <v>19200</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.23275448846921</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1229440762911188</v>
+        <v>0.1289615671436667</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3590606284697368</v>
+        <v>0.3744344376262063</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -5191,19 +5191,19 @@
         <v>16173</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9840</v>
+        <v>9176</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23857</v>
+        <v>24439</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2684369287759531</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1633327660682641</v>
+        <v>0.1523084286620429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3959838822041974</v>
+        <v>0.4056449623830334</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -5212,19 +5212,19 @@
         <v>28108</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>18972</v>
+        <v>19033</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>39416</v>
+        <v>37695</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2520306899528635</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1701070923579905</v>
+        <v>0.1706562993984858</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3534227672544126</v>
+        <v>0.3379896443118315</v>
       </c>
     </row>
     <row r="21">
@@ -5241,19 +5241,19 @@
         <v>16806</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10344</v>
+        <v>11003</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>23899</v>
+        <v>24480</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3277412144159592</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2017311679717394</v>
+        <v>0.2145784971320333</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4660652107263029</v>
+        <v>0.4774061113641611</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -5262,19 +5262,19 @@
         <v>7808</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3685</v>
+        <v>3349</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14784</v>
+        <v>14330</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1295947119649372</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.06117203124708093</v>
+        <v>0.0555911974146631</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2453861725676109</v>
+        <v>0.2378581348709499</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>23</v>
@@ -5283,19 +5283,19 @@
         <v>24614</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>16575</v>
+        <v>16743</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>34344</v>
+        <v>34628</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2206994349946858</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.148620151021357</v>
+        <v>0.1501227713356597</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3079444143033644</v>
+        <v>0.3104927979965185</v>
       </c>
     </row>
     <row r="22">
@@ -5312,19 +5312,19 @@
         <v>11394</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6244</v>
+        <v>6729</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>18263</v>
+        <v>19019</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2222078859024415</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1217616446266111</v>
+        <v>0.1312187417655112</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3561632901393209</v>
+        <v>0.3708904150432137</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -5333,19 +5333,19 @@
         <v>20249</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12876</v>
+        <v>13473</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29529</v>
+        <v>29510</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3360922901045232</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2137159796555611</v>
+        <v>0.2236271009900762</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4901169203267113</v>
+        <v>0.4898009245130661</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -5354,19 +5354,19 @@
         <v>31644</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>22572</v>
+        <v>21908</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>42915</v>
+        <v>43130</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2837299875965433</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.202393983081814</v>
+        <v>0.1964343607774975</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3847918042513971</v>
+        <v>0.3867246231885978</v>
       </c>
     </row>
     <row r="23">
@@ -5697,19 +5697,19 @@
         <v>5473</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2329</v>
+        <v>2792</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8707</v>
+        <v>8867</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.3426800193392901</v>
+        <v>0.3426800193392902</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1458344013281178</v>
+        <v>0.1748302416722856</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5452021140369818</v>
+        <v>0.5552039723116847</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -5718,19 +5718,19 @@
         <v>1395</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3574</v>
+        <v>3952</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.09616059937471709</v>
+        <v>0.09616059937471712</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02304921286924769</v>
+        <v>0.02330551799715118</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2464604988708905</v>
+        <v>0.2724659517352135</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -5739,19 +5739,19 @@
         <v>6867</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3474</v>
+        <v>3725</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11157</v>
+        <v>11264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2253535165106651</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1139912199553318</v>
+        <v>0.1222477977293525</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3661116617727243</v>
+        <v>0.3696432532672202</v>
       </c>
     </row>
     <row r="5">
@@ -5768,19 +5768,19 @@
         <v>2771</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1000</v>
+        <v>961</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5574</v>
+        <v>5729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1735309154392531</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06264586791565116</v>
+        <v>0.06014708994924568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3490425254814757</v>
+        <v>0.3587087480988186</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -5789,19 +5789,19 @@
         <v>5962</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3317</v>
+        <v>3403</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9084</v>
+        <v>9181</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.4110825640170071</v>
+        <v>0.4110825640170072</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2287206771205643</v>
+        <v>0.234648633460354</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6263270217423761</v>
+        <v>0.6330282148974508</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -5810,19 +5810,19 @@
         <v>8733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>5237</v>
+        <v>4972</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12801</v>
+        <v>13059</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2865893680869501</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1718410612941047</v>
+        <v>0.1631718269669515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4200674133086801</v>
+        <v>0.4285426806333744</v>
       </c>
     </row>
     <row r="6">
@@ -5842,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3160</v>
+        <v>3536</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03668040612740554</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1978483818593549</v>
+        <v>0.2214327228224963</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>4</v>
@@ -5860,19 +5860,19 @@
         <v>2340</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>634</v>
+        <v>625</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5182</v>
+        <v>5134</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1613258458938988</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04373674393003147</v>
+        <v>0.04311247366004316</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3572788179433618</v>
+        <v>0.3539869797956572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -5881,19 +5881,19 @@
         <v>2926</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1034</v>
+        <v>1113</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6230</v>
+        <v>6651</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09600317081442415</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03393823789111301</v>
+        <v>0.03653191957266703</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2044337965261987</v>
+        <v>0.2182430183448435</v>
       </c>
     </row>
     <row r="7">
@@ -5910,19 +5910,19 @@
         <v>7140</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4176</v>
+        <v>3686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10952</v>
+        <v>10526</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.4471086590940511</v>
+        <v>0.4471086590940512</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2615070657499842</v>
+        <v>0.2308315278373825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.685758848634666</v>
+        <v>0.6591213152367554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -5931,19 +5931,19 @@
         <v>4807</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7805</v>
+        <v>7681</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.331430990714377</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1751856964566175</v>
+        <v>0.175109017878558</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5381681733138193</v>
+        <v>0.5296311173797744</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -5952,19 +5952,19 @@
         <v>11947</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7539</v>
+        <v>7662</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16486</v>
+        <v>16999</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3920539445879607</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2473830182238162</v>
+        <v>0.2514359214420604</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.5410172142129008</v>
+        <v>0.557831151779738</v>
       </c>
     </row>
     <row r="8">
@@ -6056,19 +6056,19 @@
         <v>9853</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4748</v>
+        <v>4709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16202</v>
+        <v>16062</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2783478250543238</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.134133377889049</v>
+        <v>0.1330319962434822</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4577221276012011</v>
+        <v>0.4537631224575741</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -6077,19 +6077,19 @@
         <v>6538</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3456</v>
+        <v>3312</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10657</v>
+        <v>10660</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2394031623406704</v>
+        <v>0.2394031623406705</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1265319421417374</v>
+        <v>0.1212715689065351</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3902026807430549</v>
+        <v>0.3903228684124238</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -6098,19 +6098,19 @@
         <v>16391</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10432</v>
+        <v>10730</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>23802</v>
+        <v>23980</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.2613867085910226</v>
+        <v>0.2613867085910225</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1663653577348734</v>
+        <v>0.1711104262918568</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3795740654284033</v>
+        <v>0.382404317381965</v>
       </c>
     </row>
     <row r="10">
@@ -6127,19 +6127,19 @@
         <v>4170</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1449</v>
+        <v>1626</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8990</v>
+        <v>8643</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.117815171108694</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04094281823562775</v>
+        <v>0.04593432706532655</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2539706773657602</v>
+        <v>0.2441665577552787</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -6148,19 +6148,19 @@
         <v>4351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1931</v>
+        <v>1831</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7915</v>
+        <v>7982</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.1593148759243042</v>
+        <v>0.1593148759243043</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07071286303799863</v>
+        <v>0.06704334482713162</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2897933733026073</v>
+        <v>0.2922490759009945</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -6169,19 +6169,19 @@
         <v>8521</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4797</v>
+        <v>4470</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14030</v>
+        <v>14525</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1358890553722602</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07649877202683038</v>
+        <v>0.07128838565086199</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2237302948341265</v>
+        <v>0.2316253059962638</v>
       </c>
     </row>
     <row r="11">
@@ -6198,19 +6198,19 @@
         <v>7056</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3325</v>
+        <v>3084</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12414</v>
+        <v>12107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1993357885318772</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09394486758420301</v>
+        <v>0.08711800569594698</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3506932506001106</v>
+        <v>0.3420141249460768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -6219,19 +6219,19 @@
         <v>3855</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1611</v>
+        <v>1670</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>7400</v>
+        <v>7489</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1411559367131368</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05900529650916372</v>
+        <v>0.0611347226450338</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2709521696910701</v>
+        <v>0.2742100262194557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>14</v>
@@ -6240,19 +6240,19 @@
         <v>10911</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6256</v>
+        <v>6150</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>18072</v>
+        <v>16648</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1739973936465284</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09976202308755344</v>
+        <v>0.09806629876745623</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2881902825913533</v>
+        <v>0.2654870620376935</v>
       </c>
     </row>
     <row r="12">
@@ -6269,19 +6269,19 @@
         <v>14319</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8720</v>
+        <v>9021</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>20430</v>
+        <v>20228</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4045012153051049</v>
+        <v>0.4045012153051047</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2463501243078256</v>
+        <v>0.2548476801067062</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5771438543091678</v>
+        <v>0.5714357407498596</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -6290,19 +6290,19 @@
         <v>12567</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8538</v>
+        <v>8423</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17547</v>
+        <v>17241</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4601260250218885</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3126256253427079</v>
+        <v>0.3084179777530002</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6424897907198668</v>
+        <v>0.6312676080140928</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>31</v>
@@ -6311,19 +6311,19 @@
         <v>26885</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19448</v>
+        <v>19813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>34703</v>
+        <v>35586</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4287268423901889</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3101285392022802</v>
+        <v>0.3159577165592288</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5534043266805115</v>
+        <v>0.5674922334115382</v>
       </c>
     </row>
     <row r="13">
@@ -6415,19 +6415,19 @@
         <v>2448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>535</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6051</v>
+        <v>5703</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.218840934390422</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.04778709907877205</v>
+        <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5408577085189658</v>
+        <v>0.5097450757285222</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -6436,19 +6436,19 @@
         <v>2339</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4793</v>
+        <v>4756</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2721188850619943</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07284203722802662</v>
+        <v>0.07096755440267194</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5576215048873121</v>
+        <v>0.5533387113986135</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7</v>
@@ -6457,19 +6457,19 @@
         <v>4788</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2094</v>
+        <v>1698</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9066</v>
+        <v>8515</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2419907451366708</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1058431810495085</v>
+        <v>0.08583304543672338</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4582527466754867</v>
+        <v>0.4303872883933236</v>
       </c>
     </row>
     <row r="15">
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4919</v>
+        <v>5699</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.09606477404545309</v>
@@ -6498,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4396783463814334</v>
+        <v>0.5093932984110655</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -6510,16 +6510,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>3765</v>
+        <v>4390</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1643468711481224</v>
+        <v>0.1643468711481225</v>
       </c>
       <c r="O15" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4380114367401013</v>
+        <v>0.5106576554062131</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>3</v>
@@ -6528,19 +6528,19 @@
         <v>2488</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6360</v>
+        <v>5922</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1257340388230716</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03447577014690408</v>
+        <v>0.03286535356237952</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3214752491011893</v>
+        <v>0.299309795347504</v>
       </c>
     </row>
     <row r="16">
@@ -6557,19 +6557,19 @@
         <v>6062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2428</v>
+        <v>2840</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>9417</v>
+        <v>9412</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5418500535251188</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2170594686867257</v>
+        <v>0.2538553225450253</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8417325699571616</v>
+        <v>0.841264157722167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6581,16 +6581,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2583</v>
+        <v>2152</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0548801744309687</v>
+        <v>0.05488017443096871</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3004636458746607</v>
+        <v>0.2503884882317159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -6599,19 +6599,19 @@
         <v>6534</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2913</v>
+        <v>2895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12112</v>
+        <v>11935</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.330256694582949</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1472268090998588</v>
+        <v>0.1463517220320087</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6121876220521973</v>
+        <v>0.603250790087114</v>
       </c>
     </row>
     <row r="17">
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4747</v>
+        <v>4724</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.143244238039006</v>
@@ -6640,7 +6640,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4243175045332719</v>
+        <v>0.4222693711539944</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -6649,19 +6649,19 @@
         <v>4372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1790</v>
+        <v>2021</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>6866</v>
+        <v>6762</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.5086540693589143</v>
+        <v>0.5086540693589144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2082045230624974</v>
+        <v>0.235125512700497</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7987053639157786</v>
+        <v>0.7866331077859482</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8</v>
@@ -6670,19 +6670,19 @@
         <v>5975</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>2365</v>
+        <v>2912</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>9775</v>
+        <v>10306</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3020185214573086</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1195303820170127</v>
+        <v>0.1471788571045844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4940915681077258</v>
+        <v>0.5209272486477204</v>
       </c>
     </row>
     <row r="18">
@@ -6774,19 +6774,19 @@
         <v>17774</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11710</v>
+        <v>11837</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>25923</v>
+        <v>25973</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2841288729539838</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1871880929198684</v>
+        <v>0.1892262510353047</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4144071616065038</v>
+        <v>0.4151979612514347</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -6795,19 +6795,19 @@
         <v>10272</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>6199</v>
+        <v>6049</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15644</v>
+        <v>15297</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2037708384128417</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.122979232543142</v>
+        <v>0.1199998437417576</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3103389432487033</v>
+        <v>0.3034604658235098</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>37</v>
@@ -6816,19 +6816,19 @@
         <v>28046</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>20430</v>
+        <v>21039</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>36736</v>
+        <v>37330</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2482696093341452</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1808486673765193</v>
+        <v>0.1862427451897988</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3251956899877047</v>
+        <v>0.33045335747719</v>
       </c>
     </row>
     <row r="20">
@@ -6845,19 +6845,19 @@
         <v>8016</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4210</v>
+        <v>4262</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13129</v>
+        <v>13395</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1281490925580644</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06730696440904869</v>
+        <v>0.06812498961226618</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2098775160481076</v>
+        <v>0.2141248268481726</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -6866,19 +6866,19 @@
         <v>11726</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7269</v>
+        <v>7299</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17080</v>
+        <v>17390</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2326073491915953</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1441878774342547</v>
+        <v>0.1448014796669805</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3388254362514286</v>
+        <v>0.3449690353365757</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>31</v>
@@ -6887,19 +6887,19 @@
         <v>19742</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>13339</v>
+        <v>13682</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27573</v>
+        <v>26814</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1747629275439458</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.118077278546868</v>
+        <v>0.121119117396623</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.244088595061514</v>
+        <v>0.2373682311418449</v>
       </c>
     </row>
     <row r="21">
@@ -6916,19 +6916,19 @@
         <v>13704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>8376</v>
+        <v>8245</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22322</v>
+        <v>21734</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2190681851255995</v>
+        <v>0.2190681851255994</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1338940329418114</v>
+        <v>0.1318036552896473</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3568331286456874</v>
+        <v>0.3474458458156275</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -6937,19 +6937,19 @@
         <v>6667</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3657</v>
+        <v>3523</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11277</v>
+        <v>11863</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1322462629599172</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07254698495067434</v>
+        <v>0.06989427305425681</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.223709373159273</v>
+        <v>0.2353289520388978</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>26</v>
@@ -6958,19 +6958,19 @@
         <v>20370</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>13348</v>
+        <v>13530</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>29093</v>
+        <v>30827</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1803244526202167</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1181602452561136</v>
+        <v>0.1197708763922376</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2575376047118037</v>
+        <v>0.272889802735604</v>
       </c>
     </row>
     <row r="22">
@@ -6987,19 +6987,19 @@
         <v>23061</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15873</v>
+        <v>16144</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>30668</v>
+        <v>30415</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3686538493623523</v>
+        <v>0.3686538493623522</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2537379076335201</v>
+        <v>0.2580806550701801</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4902565003503206</v>
+        <v>0.4862165328051609</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>32</v>
@@ -7008,19 +7008,19 @@
         <v>21746</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>16047</v>
+        <v>16308</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>28277</v>
+        <v>28051</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4313755494356454</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3183292260988043</v>
+        <v>0.3235163774090305</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5609463113139929</v>
+        <v>0.5564503319036169</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>57</v>
@@ -7029,19 +7029,19 @@
         <v>44807</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>34565</v>
+        <v>35116</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>54465</v>
+        <v>55185</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3966430105016922</v>
+        <v>0.3966430105016923</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3059786221072743</v>
+        <v>0.3108538121374484</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4821399815269503</v>
+        <v>0.488511756476343</v>
       </c>
     </row>
     <row r="23">
